--- a/corpus.xlsx
+++ b/corpus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="407">
   <si>
     <t>Super interesting and gripping right up until the very end—my sister called me while I was finishing the last few pages and I had to tell her to call me after I was done because I had to know exactly how it ended.There were some moments in the writing that I found repetitive to the point where it pulled me out of the story, but I was also super impressed by all of the dream sequences in this book and the depictions of memories. Dreams can be difficult to portray in a way that’s believably</t>
   </si>
@@ -639,6 +639,612 @@
   </si>
   <si>
     <t>The Deep by Rivers</t>
+  </si>
+  <si>
+    <t>I guess I'll have to be the one who says what nobody else is willing to say. This novel is terrible, and Booker judges are starstruck, hype-driven sellouts. And that no professional literary critic has the guts to tell the truth about how poorly conceived and written The Testaments is, is a true shame.  I can't decide which work Atwood should be embarrassed for more - Angel Catbird, Vol. 1 or The Testaments. The book doesn't read like a novel written by one of the most lauded authors of the 20st</t>
+  </si>
+  <si>
+    <t>I can sum it up simply: this book is not needed. I hoped that wouldn't be the case. I really really hoped Atwood had something important to add to the world of Gilead with this book, but she honestly doesn't. If anything, The Testaments serves only to weaken the power of The Handmaid's Tale.In the past, I have spoken highly of authors who are not afraid to "be evil" with their books. This may give the impression that they are doing something particularly nefarious, but, in fact, it’s not so much</t>
+  </si>
+  <si>
+    <t>Return to GileadCheck your expectations at the door: The Testaments is a highly entertaining page turner, but it is also probably quite different from whatever you were anticipating.It differs from its 1985 antecedent, The Handmaid's Tale, in tone, voice and literary heft. That earlier book had a power and a gravitas that is not recaptured here. For me the most striking thing about The Handmaid’s Tale has always been Atwood’s choice of narrator. Offred (in the book she has no other name) is so</t>
+  </si>
+  <si>
+    <t>Winner of best fiction category but it’s not my winner. That’s my opinion and I respect fans’ opinions  Two stars for the love of Aunt Lydia! If she wasn’t in this book, I could do something first by giving minus five stars to a book! See how I disliked and how I felt frustrated about this hope stealing, time wasting, one of the biggest failures of the year!!!! One of the tasteless testament you could ever have!2019 could be one of this year I got really disappointed by movies, series books.</t>
+  </si>
+  <si>
+    <t>I haven't even finished season 2 of the tv show since it was so emotionally draining but here I am reading this!!</t>
+  </si>
+  <si>
+    <t>This was my most anticipated book for 2019.Wait... I should amend that statement...THIS WAS THE MOST ANTICIPATED BOOK OF MY MISERABLE FRIGGIN LIFE!And much like my life, it was an epic disappointment.The Handmaid's Tale is on my Top 10 shelf. It is, in my opinion, the greatest dystopian novel of all time. It is everything you expect from the genre and more. Shocking, terrifying, an unflinching account of a fucking nightmarish scenario that could actually happen. At the end of The Handmaid's Tale</t>
+  </si>
+  <si>
+    <t>"How tedious is a tyranny in the throes of enactment. It's always the same plot." So why does Margaret Atwood choose to tell the story again? That question has haunted me since I heard the announcement of the project almost a year ago. WHY? I was convinced I would hate the hype and the gushing reviews and the book itself, and started reading with the attitude of someone who knew the story didn't need telling again.To my surprise, I liked it from the start, and soon engaged in the thriller</t>
+  </si>
+  <si>
+    <t>A review in 5 words: Unnecessary. Pointless. Ruining. Bland. Spoilers.</t>
+  </si>
+  <si>
+    <t>It's not easy being the most anticipated book of the year. I would argue that most of the negative reactions - including my own - are based largely on expectations. Since published in 1985, The Handmaid's Tale has become sacred ground in the literary world; a true modern classic further amplified by the successful show and current political tensions. Stakes for a sequel couldn't be higher and, even for the ever-talented Margaret Atwood, that's a tough performance to deliver. All in all, this is</t>
+  </si>
+  <si>
+    <t>“One mysterious box, when opened, so often conceals another.”  In relation to The Handmaid’s Tale Hulu series, I found The Testaments entertaining. As a follow up to the novel, I found it lacking. I am holding off on a complete review until I have finished rereading The Handmaid's Tale. More to come!</t>
+  </si>
+  <si>
+    <t>I liked this one more than A Handmaid's Tale! Call me crazy! But I loved that there was this exciting plot that was pushing the momentum forwards and that we were learning more about Gilead and the world outside and the way it came to be. I read this DIRECTLY after A Handmaid's Tale, like I read both of them in the span of a few days, and I felt this enriched the world so much more.</t>
+  </si>
+  <si>
+    <t>Winner of the Booker Prize 2019 (together with Girl, Woman, Other)This is a flashy, placative, but also intelligent thriller, here to make some points about society and to entertain - it's certainly not the most layered or subtle literature ever written, but you know what? It's engaging, rather suspenseful and great fun to read, full of quips and commentary on the world we live in, and sometimes, that's more than enough. And honestly: The Handmaid's Tale wasn't particularly ambiguous or</t>
+  </si>
+  <si>
+    <t>Why? Why did Atwood write this more than thirty years after The Handmaid’s Tale (see my review HERE), when she’d already written sequels to that for the TV series? Because “we started moving towards Gilead instead of away from it – particularly in the United States” and more specifically, to answer “How did Gilead fall?” and “How do you get to be such a person [as Aunt Lydia]?”.Why read it? Hype, a heavy discount, and morbid curiosity. It’s an easy read and enough of a page-turner to finish</t>
+  </si>
+  <si>
+    <t>“The Testaments” opens in Gilead about 15 years after “The Handmaid’s Tale,” but it’s an entirely different novel in form and tone. Inevitably, the details are less shocking — at least in part because the horrors of Gilead’s male-centered theocracy are already so well known. When Offred first told her “sad and mutilated story,” we were hearing about the hangings, the Unbabies and the Sons of Jacob for the first time. But by now, Gildead’s breeding Ceremony is a creepy cultural touchstone.Atwood</t>
+  </si>
+  <si>
+    <t>Joint Winner of the 2019 Booker Prize - which I captured in this photo. You’ll labour over this manuscript of mine, reading and rereading, picking nits as you go. I was fortunate enough to attend one of the live cinema screenings of the readings and author Q&amp;A from the National Theatre on the evening of the book's official publication, managing to complete my first read of the book just as the event started.The event was excellent - and I think only reinforced my view that Handmaid's Tale is</t>
+  </si>
+  <si>
+    <t>Holy shit is this real? Because I need it!</t>
+  </si>
+  <si>
+    <t>3.5 stars. It pains me to write this, because I love The Handmaid's Tale, but this book just felt incredibly unnecessary. The plot is predictable, with ‘revelations’ that are glaringly obvious, and characters that just don’t have the same level of depth of emotion that Offred had. With The Handmaid’s Tale, we have a novel that leaves a lot to the reader’s imagination. The ending is ambiguous and interesting, with a story that features an incredibly narrowed view of a world by a woman so</t>
+  </si>
+  <si>
+    <t>Here I also keep another set of files, accessible only to a very few; I think of them as the secret histories of Gilead. All that festers is not gold, but it can be made profitable in non-monetary ways: knowledge is power.Aunt LydiaIt was an “extraordinarily complicated process” to get copies of the manuscript, which is protected by a “ferocious” non-disclosure agreement.Chair of Booker Judges as told to the GuardianWhen, in 2197, the Thirteenth Symposium on Amazonian Studies takes place, the</t>
+  </si>
+  <si>
+    <t>UPDATE OCTOBER 2019 The Coode Street Podcast goes into the SFnal roots of this title.My hold came in today!! The librarians saw my name on the holds list and our library bought one, instead of relying on the system's many multiple copies. That way I got my hold immediately instead of being wherever I was, deep in the triple digits.They like me. They really like me.***All three stars are for Aunt Lydia's sections. Agnes is annoying, a lump of nothing as required by her upbringing; it didn't make</t>
+  </si>
+  <si>
+    <t>I've had less than good experiences in my last few Atwood reads - first I spent money on the novella series that was then removed from my Kindle with no renumeration. Then I held off and finally read The Heart Goes Last and ended up sorely disappointed in it. You can read my 2-star review but part of my complaint had to do with a feeling of author laziness on some level. Claiming it was an all new book, but to me half of it being very familiar since I'd already read it in the novella version.</t>
+  </si>
+  <si>
+    <t>3.5 to 4 starsI was going to go with 3 stars because while I liked it, it did not impress me as much as the first book. But, after discussing the book with my wife at dinner last night, I realized I got more from it than I thought, so I am upping my rating a bit.In the afterword, Atwood hints at the fact that this was written in response to the recently renewed popularity of the first book and the current state of affairs in America. Because of this, it does kind of read like it was written to</t>
+  </si>
+  <si>
+    <t>At the opening of The Testaments, a statue is unveiled. This is a statue of the infamous, puppet-master, Aunt Lydia. Readers of The Handmaid’s Tale will know her well. The Testaments is narrated by three narrators, but Aunt Lydia is the dominant of the three. Through her secretive writings, we learn of her history, and how she rose to power to become the mastermind that sets in motion the destruction of Gilead. Again readers of The Handmaid’s Tale will recognise the diary style of writing that</t>
+  </si>
+  <si>
+    <t>Joint Winner of the Booker Prize 2019I can't help but be a little disappointed with this book. In my view The Handmaid's Tale didn't need a sequel, but I suppose we can't begrudge Atwood the opportunity to cash in on the popularity of the TV version. In my view this book is not worthy of a Booker shortlisting, and is possibly the weakest of the Atwood novels I have read.There are two main problems - firstly by alternating the accounts of three narrators, the distinctive voices are lost, and</t>
+  </si>
+  <si>
+    <t>[3.5 stars] So I'm finally getting around to reviewing this. I finished it about 2 weeks ago, and didn't really mean to wait that long to write a proper review of it—but I'm glad I did. As I've sat with this book after finishing it, I think my initial feelings have faded a tiny bit. I will say first and foremost, reading this was incredibly enjoyable. It affirmed my love of Atwood's writing, at a sentence level, and storytelling. Her ability to weave plots and deliver complex themes in a very</t>
+  </si>
+  <si>
+    <t>Well, it’s written by Margaret Atwood who pens a very good read in all her books, so I added another *. Or it would have been 2.75*The book itself in MHO is that it should have been left as it was.So why did I buy it?Because I was hoping it lead on from the previous book The Handmaids Tale.For over 60% of this read it focused on the children. Nothing wrong with that, it was written really well.On the whole I enjoyed it but it was slow moving, tedious at times. Lydia is still around and as in the</t>
+  </si>
+  <si>
+    <t>this is the most unexpected thing of 2019 so far</t>
+  </si>
+  <si>
+    <t>When it comes to highly anticipated books, assuming it's one I actually want to read, I like to get hold of a copy early on and read it before the hype gets started. In this case, I re-read Handmaid's Tale a few months ago to get a fresh take, then put a hold on this one at the library to ensure being at the head of the line. I did watch the first season of the Hulu series, since I had been told that followed the first book very closely, but stopped there until the book was published.My opinion</t>
+  </si>
+  <si>
+    <t>“Once a story you’ve regarded as true has turned false, you begin suspecting all stories.” As a big fan of The handmaid's Tale, I was extremely excited when I heard of this sequel coming up, and I must say it was my most anticipated book of 2019. I pre-ordered it as soon as possible, and re-read the first one earlier this year to refresh my memory. I made myself ready for this one, and I also talked myself into resignation in case it would be a disappointment. Luckily, it wasn't! At least, not</t>
+  </si>
+  <si>
+    <t>Whilst I wasn’t clambering for a follow up, the fact that I brought this sequel straightaway does highlight how keen I was to return to Gilead.I tried to keep my expectations in check and accepted that this novel was written mainly due to the success of the Hulu series.Seeing as the show has surpassed The Handmaid's Tale and with other series also continuing past the source material with mixed results (I’m looking at you Game of Thrones), my theory is that Atwood has used this opportunity to</t>
+  </si>
+  <si>
+    <t>"You could believe you were living virtuously and also murder people if you were a fanatic." I have a confession to make: I did not particularly care for The Handmaid's Tale when I read it several years ago. I know, shocking, right? Most of you, my friends, gave it 5 stars, many gave it 4, and only a tiny handful of you (you know who you are Thank you for making me feel not-alone) granted it 2 or 3. The reason I didn't care for it could be simply that I had just finished the second book in</t>
+  </si>
+  <si>
+    <t>Really, really loved getting to revisit this world and the people in it.</t>
+  </si>
+  <si>
+    <t>In the stunning and much anticipated sequel to The Handmaid’s Tale, Margaret Atwood sheds light on the dystopia she created all those years ago and which resonates on televisions even today. Welcome back to Gilead, which has been running as its own theocratic dictatorship for over fifteen years. Life has been interesting, though the almighty power of the Commanders seems to have developed cracks—just don’t tell them that. Agnes is a girl who has lived her entire life under Gilead, knowing no</t>
+  </si>
+  <si>
+    <t>IT MIGHT NOT BE WHAT I EXPECTED BUT I ENJOYED IT ALL THE SAME! This is not the usual type of sequel. It takes place 15 years after the first book and does not revolve around Offred/June. Still, I enjoyed going back to Gilead and learning more about the early days as well as the later ones. And getting to learn Aunt Lydia's story was just pure satisfaction!  "[...] in an account such as this, it is better to be scrupulous about your faults, as about all your other actions. Otherwise no one will</t>
+  </si>
+  <si>
+    <t>I was in a generous mood today, hence: 2*</t>
+  </si>
+  <si>
+    <t>I’ve loved all of Margaret Atwood’s work, and The Testaments is fascinating: it’s not merely a fantastic novel, it’s the “meta” experience of reading it after watching three seasons of the Hulu TV series. The cross-pollination of the TV plot lines and Atwood’s narrative (and narration) decisions are brilliant. Both the series and this book feel like companion pieces — which I loved. The novel certainly stands alone, as it should. But having watched the TV series lent something deeply moving to</t>
+  </si>
+  <si>
+    <t>What a fantastic book!! I was cautiously hopeful about this sequel, and Margaret Atwood blew me away... I should have never doubted it! I do wish I had reread The Handmaid's Tale before I started The Testaments... I was unsure if what I was remembering was from the book or the TV show. Regardless, The Testaments was done amazingly well.</t>
+  </si>
+  <si>
+    <t>4.5, rounded up.I think there is no way this book WASN'T going to be polarizing, simply due to the anticipation and hype surrounding it. And in one sense, yes, I was (very slightly) disappointed that there wasn't more to it. But since I read it virtually back to back with a reread of Handmaid's, they more or less coalesced into one seamless novel - and I must say I enjoyed it immensely. Even those who have nitpicked and dismissed the novel, seemed to have devoured it in one or two days, and</t>
+  </si>
+  <si>
+    <t>Rereading The Handmaid's Tale before picking up The Testaments was a good move on my part; as soon as I entered Gilead again, I was immediately invested. This was helpful because, as others have noted, The Testaments lacks the gravitas of its predecessor. For what it's worth, I think this is mostly a matter of language; Atwood's style has gotten more direct, less poetic and evocative over the years. But it's also the case that, unlike Offred, the three women who narrate this novel haven't</t>
+  </si>
+  <si>
+    <t>Loooooved it. Towards the end it got a bit sloppy and rushed and also the dialogue started to feel off, scripted, unnatural. I'm referring to the last 100-150 pages. Other than that, I loooooved it, and since I had HUGE expectations and they were met, we can all agree that it's a very good book. I was afraid it will fell flat, not because of its quality, but because of my excitement.Not that I expected anything in particular, but I did NOT expect to see (view spoiler)[ Aunt Lydia and baby</t>
+  </si>
+  <si>
+    <t>I wanted to rate this higher but the author committed the YA dystopian novel cliche of 'the annoyingly immature teenage girl is put into an undeserved position of importance and yet somehow saves the day'. And add to that a travesty of an epilogue which wraps up things way too neatly and you get what could have been a 4 star book downgraded quickly to 3 stars. *sigh*Reasons you SHOULD read this book:- The character of Agnes, and especially with her best friend Becka, gives us a new insight into</t>
+  </si>
+  <si>
+    <t>I hear this book will probably part of a trilogy.Good story, except, I don't like authors talking to the readers, as part of the story.</t>
+  </si>
+  <si>
+    <t>I don’t know why Atwood wrote this book. Why would you follow such an iconic book as The Handmaid’s Tale with a sequel like this? The Handmaid’s Tale was subtle in the sense that not all the gaps were filled. That was what made it so sinister. If writers are advised to ‘show not tell’, then the first book was ‘show’ and The Testaments was all ‘tell’. All it did was flesh out the details of Gilead. There was nothing here that could not have been inferred from the first book. If this had been my</t>
+  </si>
+  <si>
+    <t>[12/10/19] - Congratulations, Margaret Atwood, on winning the 2019 Goodreads Choice Award for Fiction!--------------Edit (2): OMG! I just noticed the girl stretching (?) In the ladies cloakEDit: WE HAVE A COVER (?) I don't really understand. it's like the same cover as book oneOH MY GOSH! I'M SO EXCITED. but I need to know... Which dum-dum gave this a low rating?| Goodreads | Blog | Twitch | Pinterest | Buy | Reddit</t>
+  </si>
+  <si>
+    <t>Rating: 3.5This is not great literature, but I found it entertaining, propulsive, and something of a relief after the oppressive and claustrophobic Handmaid's Tale, which I recently reread. Here we have three narrators: two women from the totalitarian religious state of Gilead and (the third) a teenage girl who was smuggled out of Gilead in childhood and raised in Canada. I found the testimonies of Gileadean characters of the greatest interest. The Y/A quest narrative, which forms a large part</t>
+  </si>
+  <si>
+    <t>I can’t think of any other literary novel that has had such a build-up prior to its release. Details of the story were shrouded in secrecy and its shortlisting on this year’s Booker Prize all contributed to an anticipation which culminated in a midnight release of the book this week and a live interview with Atwood that was streamed to over 1,300 cinemas around the world. I have to admit, I jumped right on board the hype train and read the novel over the course of a day. Personally, I was</t>
+  </si>
+  <si>
+    <t>Thy freedom shall be restored! Praise be! Thy words will set us free! We shall overcome! Praise the Lord! Help me to contribute to the greater good! I hear the call! Alleluia! Deliver me from this shit hole! Praise be!Although I thoroughly enjoyed The Handmaid's Tale, I really didn't see the need for a sequel. So many sequels aren't as good. So many just seem like an attempt to make money from an exhausted theme. While The Handmaid's Tale definitely could stand on its own, I am glad Atwood chose</t>
+  </si>
+  <si>
+    <t>This book. Such a long anticipated read for so many of us. Original Handmaid's readers, star struck tv viewers, publishers hungry for another release - what a difficult task Atwood had before her. With millions of people waiting and waiting she has managed to pick up the story pretty much smack bang in the middle of Gilead and write a response to the long asked question, how did Gilead fall. The end result here will appeal to a lot of different audiences. The introduction of two additional young</t>
+  </si>
+  <si>
+    <t>Readers seem to either love, or to hate this one, with very little in between. I have seen quite a few reviews where the Testaments is viewed as ‘unnecessary’. I counter that the themes and questions raised in the Testaments are as relevant, and as important (if not more so) than they were when the Handmaid’s Tale was released, approximately 15 years ago. The Handmaid’s Tale left readers with hope that things would eventually be OK, and the Testaments both affirms this and provides us with the</t>
+  </si>
+  <si>
+    <t>The Testaments was for the most part, an engrossing experience, but I'm not sure that it was what I expected it to be. I pre-ordered this beauty some time ago, and when it was delivered, I was honestly a child on their birthday. I wanted to break in to that box which contained my highly anticipated read, but yet, I also wanted to savour the moment, and open that box with precision, and some element of calm. I ripped it open, and I'm sure I was almost drooling.After my amazing experience with</t>
+  </si>
+  <si>
+    <t>Fantastic! I was one of the lucky ones that didn't have to wait long for the sequel. It was quite satisfyingly. There was an annoying character, but I can overlook that. It's like life, we're not all perfect. Highly recommend it.</t>
+  </si>
+  <si>
+    <t>Really enjoyed this one!! Atwood’s writing is impeccable as always... and I just love learning more about Gilead. Full review to come.</t>
+  </si>
+  <si>
+    <t>How tedious is a tyranny in the throes of enactment. It's always the same plot. ... and how tedious, we might add, is yet another feministy dystopian thriller where a powerful patriarchal regime is smashed by just a pair of feisty teens and an Aunt! Ok, that's a bit unfair as this is a page-turner of a read but it definitely has its literary heart in the same place as all those YA resistance tales like The Hunger Games, Divergent and hundreds of others. Where The Handmaid's Tale was tense and</t>
+  </si>
+  <si>
+    <t>While this doesn't have the same impact as The Handmaid's Tale, largely because the shock value is gone at this point, I was not disappointed by this. I am only giving it four stars because one plot point strikes me as a little too far-fetched, even in the world of Gilead, but I may have missed some details in my fervor to read this as quickly as possible. I may re-evaluate after a closer reading.</t>
+  </si>
+  <si>
+    <t>to be perfectly honest i kind of wish this wasn’t happening. part of what i loved about the original was how hermetically sealed it felt, to the degree that a sequel or an expansion practically feels like it breaks the structure?but like. it’s margaret atwood, so i will read it and probably love it and look back on this pre-review as me being whiny and averse to change. i hope</t>
+  </si>
+  <si>
+    <t>As this sequel to Atwood’s worldwide bestseller and Hulu serialized drama, The Handmaid’s Tale was coming to a close I grew anxious. ‘There are’t enough pages left to wrap this up,’ I thought, but I wasn’t giving Atwood and her editors enough credit. The story is Atwood’s conversational response to readers who wanted to know what happened to characters left in extremis at the end of A Handmaid’s Tale. Atwood’s wonderful sense of humor brings the sharp-eyed, lumpy woman adorned in brown burlap</t>
+  </si>
+  <si>
+    <t>Overall: An interesting, engaging, fast-paced sequel that fans of Handmaid’s Tale will enjoy. Slightly contrived and predictable but still a very fun read that I could not put down. Hard to live up to the first one, but this one is definitely worth reading and did not disappoint 7.5/10Summary: In this sequel, we are following three separate storylines a decade and a half after the conclusion to The Handmaid’s Tale. The main story line in “The Testaments” is a spy-like thriller about a mole</t>
+  </si>
+  <si>
+    <t>Reading the sequel to THE HANDMAID’S TALE I was hoping to finally encounter a character named Ofmatt, – but – no such luck (Just kidding!)While the first volume depicts the society of the Republic of Gilead pretty much from the point of view of a single individual, the Handmaid, this here book offers the respective perspective from three persons, one from the outside looking in, and the other two from the inside looking around. Two of those views become altered by moving the narrators from</t>
+  </si>
+  <si>
+    <t>3.75 starsAlthough I don’t think Atwood pulled a spectacular second book showstopper à la Year of the Flood again, The Testaments definitely stood up in its own right for me! It felt quite different to The Handmaid’s Tale but it would be impossible not to, being written 34 years after the fact..Where THT feels almost claustrophobic at times, always being in Offred’s head, with The Testaments we get a much wider narrative, allowing us to gain a bigger picture of Gilead, its unfortunate</t>
+  </si>
+  <si>
+    <t>Honestly, I'm scared.</t>
+  </si>
+  <si>
+    <t>buddy read with NkishaI freely admit I'm not exactly a Margaret Atwood fan and when I decided to read this sequel to The Handmaid's Tale I doubted I would much enjoy it as I found The Handmaid's Tale to be less than well executed; marvellous premise though. And well, sadly I was right about The Testaments. While the story was incredibly engaging and easy to read ultimately I failed to see the point of this sequel. To me it detracts greatly from the originality and chilling nature of the original</t>
+  </si>
+  <si>
+    <t>Excellent reading. Everyone will have their opinion. I enjoyed it a lot. That's about as intelligent as I can be on the topic of this book on day-I've-lost-count of a migraine which is stripping me of the will to live. Great literature and stories you can't stop reading is one reason to keep going in a world gone mad with debilitating pain as the cherry on top. The audiobook was very good too.</t>
+  </si>
+  <si>
+    <t>The Testaments has been piling up in the windows of every bookstore here in Halifax, so I figured I might as well read it, because I don't really remember The Handmaid's Tale too well beyond the basic gist of the story, and this new sequel promised some closure to the cliffhanger ending for Offred that the previous instalment left readers on for ages. With the #MeToo movement, neo-feminism, Donald Trump and an ever-evolving political arena, The Handmaid's Tale is a Canadian dystopian novel that</t>
+  </si>
+  <si>
+    <t>When an iconic and feminist dystopian novel from over 30 years ago that envisioned a world where women had no control over any area of their lives or bodies is succeeded by a long-awaited sequel, three questions need to be asked: is the novel as good as Handmaid’s Tale? Is it worth reading? Does if offer up parallels to the sorry state of what is going on today?The answers are: No. Yes. And sort of.No, it is not as brilliant as Handmaid’s Tale, which will certainly be viewed as a classic in</t>
+  </si>
+  <si>
+    <t>OK HOLD UP: SHE WON???uh... what????????• • •I’ve finished. OK, un-sign me up for this.really, I should have known better. has there ever been a sequel to something that has become insanely popular that was worthy of the original (or even worthy of existence)? (trying to think of one... still trying... frighteningly remembering the upcoming sequel to Call Me By Your Name, and hoping it doesn't fall into the same category... still trying... nope, nothing.)I read Tatiana's review before my copy of</t>
+  </si>
+  <si>
+    <t>I went on a reading spree and finished both  The Handmaid’s Tale  &amp;  The Testaments  over the weekend and some of you might not like what I have to say about the sequel: I found it incredibly predictable and I don’t think it was necessary, since it didn’t bring anything new to that world. I have read this kind of plot in other books with religious cults/totalitarian regimes, seen it, in one form or another, even in movies: that supposedly utopic society, rotten from the inside finally</t>
+  </si>
+  <si>
+    <t>Sequels that happen so many years after the original usually don’t work out, but this was just as good as the original. I would actually argue that The Testaments was somehow better The Handmaid’s Tale, which is definitely not something I thought I’d say going into it. This was an exceptional book, and if for some reason it’s not on your list you need to change that right now. I loved so many things about this book. The three different POVs were all interesting, and I loved how they all came</t>
+  </si>
+  <si>
+    <t>This book I am not going to rate, as I am torn by the strong impression it made on me and my disappointment about its inconsistencies.The key question that I have been asking myself during and after the lecture is “How far is Gilead from us”? The novel is set in the future, but the time, when women were reduced to their roles as mothers and housewives - also in my country - has not long passed; and in the heads of some people still is permanent. Far also in terms of geography. In our days there</t>
+  </si>
+  <si>
+    <t>When The Handmaid's Tale was published in 1985, it was both revolutionary and revelatory. In it, Margaret Atwood imagined the nation of Gilead, an autocratic theocracy created through the violent overthrow of the United States government. In a world in which fertility rates had fallen drastically, one of Gilead's prime commandments was procreation by whatever means necessary, including the forced servitude of fertile women as Handmaids, women forced to conceive and carry babies that they'd have</t>
+  </si>
+  <si>
+    <t>Extraordinary. I read immediately after The Handmaids Tale. This one was much more plot-oriented. A freaking page-turner, that I raced through in a few days. Less of the prose brilliance of Handmaids (one of my all-time favorites, so a high bar), but wow, this had me riveted, after about page 100. It's a different animal, reaching for different charms. But grasping them, brilliantly.</t>
+  </si>
+  <si>
+    <t>This was a great read, even though it wasn’t quite what I expected. I had expected to find out more about what happened to Offred than was included here. The only character from the first book that appears regularly in this one is Aunt Lydia, but her chapters gave detail on how Gilead developed. The book was somewhat predictable, but Atwood’s writing and characters were so engaging that I still read this compulsively.</t>
+  </si>
+  <si>
+    <t>Sometimes we dream about sequels for favorite books. We never really think they will happen. Or, if they do, the sequels are deeply disappointing.Not so with The Testaments, sequel to Margaret Atwood's widely-beloved The Handmaid's Tale. What happened next? we all wanted to know. The Testaments wraps things up nicely.I'll be brief about the plot: Three different stories of three very different women, and all three come together with powerful results.The fear that underscores this book is the</t>
+  </si>
+  <si>
+    <t>Well that was a ginormous disappointment. I’ll write a review when I’ve recovered.</t>
+  </si>
+  <si>
+    <t>Aww. This was so good. I think Atwood did a wonderful job of showing us how Gilead came to be, how it was for those who lived there, and how it looked to others from the outside. Instead of staying with one POV throughout the story, Atwood allows us to to get fully immerse in Gilead via the POVs of a young girl named Agnes, an older girl named Daisy, and the fearsome Aunt Lydia. The character development works for these three characters as well as the secondary characters such as Becka, the</t>
+  </si>
+  <si>
+    <t>This was sadly not for me. I strongly feel she shouldn't have written a second book so long after the first book's publication.</t>
+  </si>
+  <si>
+    <t>A sequel to The Handmaid's Tale. This book takes place 15 years after The Handmaid's Tale, and has three female narrators telling of their experiences with Gilead.I read The Handmaid's Tale years ago, and loved the way it ended. I didn't have any questions about what happened to Gilead, but with the popularity of the TV series, it seems a new book was wanted, or at least, would sell well. I do watch the series, and it's been a long time since I read the book, so I was sometimes confused as to</t>
+  </si>
+  <si>
+    <t>JOINT BOOKER PRIZE 2019 WINNERGOODREADS FICTION WINNER 2019An easier, yet at the same time also less impactful, read than the Handmaid's taleBut perhaps it is too late for that. You take the first step, and to save yourselves from the consequences, you take the next one.The three narrators assessedWe return to Gilead, the theocracy that superseded the United States of America through the eyes of three women: aunt Lydia, Agnes/Victoria and Daisy/Jade.The last two narrators are both teenagers, one</t>
+  </si>
+  <si>
+    <t>I can’t help but have the feeling with this novel as I read it that it’s as hopelessly and cruelly outdated, in terms of its refusal to incorporate race in the story, as other sci fi novels of the past, those written by men mostly, were unaware of their misogyny. The problem of erasing racism as an issue was troubling enough in the original story but at least it was written decades ago. Gilead portrays what was the daily reality of enslaved black women in this country before the emancipation</t>
+  </si>
+  <si>
+    <t>If you've enjoyed The Handmaid's Tale, this is definitely worth the read!</t>
+  </si>
+  <si>
+    <t>Omg this was so obnoxiously predictable, so forced, and so trite.....Do I hate it this so much because it’s so triggering and the realities of VAW shit in the news means I can’t see the point in novels about it?Because I’ve sat with so many REAL women telling me their experiences of being living in Iran/Pakistan/Afghanistan and going with people smugglers to escape to Indonesia/Australia, so the made up stories have no shock value?Because I’ve read much more creatively fictionalised parables</t>
+  </si>
+  <si>
+    <t>Officially my most anticipated read of 2019. Cannot wait for this!</t>
+  </si>
+  <si>
+    <t>Well, with the later seasons of the Hulu show and now this novel, we officially have two mediocre, poorly thought-out continuations of The Handmaid’s Tale! This started out promising enough but took an absolute nosedive into improbability and shoddy character development in the back half. I don’t think the plot in this one would hold up to the lightest breeze, and Atwood, shockingly, managed to fumble moments of emotional payoff that should have been an easy touchdown.</t>
+  </si>
+  <si>
+    <t>It's rare for me to return a book but I returned this one. I don't know how it came to be a co-winner of the Booker but all I can say is that even Margaret Atwood is not immune to a cash grab. This is yet another sequel that wasn't needed nd shouldn't have been written. Worst of all, it isn't even well-written. Do yourself a favor and skip this one.</t>
+  </si>
+  <si>
+    <t>This is an appallingly bad book. Trite, formulaic, poorly characterized and plotted, telegraphing its big reveals from the start and wrapped up in a Hollywood ending. It resembles currently popular YA distopian fiction, except lacking the force and nuance. Margaret Atwood has enormously undermined the impact of her great work with this absurd follow-on. What happened here? Atwood presumably knew better than to attempt this for decades. Was she worn out by demands for a sequel? Could she not say</t>
+  </si>
+  <si>
+    <t>OK, this is a negative review. Thought I should put that up front. Really, I was annoyed when I finished. I was tempted to post a review on Litsy that simply said something like "decent dytopian thriller", which I thought would be nice rye bashing. But, while I was annoyed, I really never felt this was a bad book, I just didn't really like it. (On Litsy I ended up posting: "Not for me. Easy enough to listen to, but I finished feeling I had read a bit of a thriller with limited substance,</t>
+  </si>
+  <si>
+    <t>This is a case of what's not to like? For people who have read The Handmaid's Tale --which I fread when it first came out--and for people who have watched the television production, this book is a terrific read. Atwood takes from present day American attitudes at the Presidential level and works them into Gilead and...what ultimately happens to Gilead. Aunt Lydia is a revelation here. The other two narrators are excellent as well. I quite liked this book and wouldn't have the least difficulty</t>
+  </si>
+  <si>
+    <t>4.5 rounded upLet me start by saying that in my book, Margaret Atwood can do no wrong. I've been a fan for decades, and that's not going to change anytime soon. I tend to love everything she puts her name to.That said, there are a few problems with the Testaments. Others have said because of two of the three narrators, this book reads like a YA dystopian novel. I get that. And for that reason, this book doesn't have the heft that the Handmaid's Tale had.We already know that Gilead is an</t>
+  </si>
+  <si>
+    <t>Loved it ! Praise be : D</t>
+  </si>
+  <si>
+    <t>3.5 stars....I’m the reader that loved The handmaid’s Tale and never thought about a follow up book. But I’m also the reader that was excited that the story would be continued or explained. At the end of the day, it’s hard to not compare book 1 and book 2 with each other. This was a good and worthy read but lacked the intense drama I felt when I read Handmaid. I felt the same when reading Harper Lee’s Mockingbird vs the 2nd book. I was grateful to have another book by the author but wasn’t blown</t>
+  </si>
+  <si>
+    <t>The Testaments by Margaret AtwoodThe Testaments has to be one of the most anticipated reads of 2019. There’s been mixed reviews about this book so I was in two minds whether to read it or not. I’m so pleased I did!I have a confession to make, I have never read A Handmaid’s Tale but I have watched the award-winning TV series. Can you believe The Handmaid’s Tale was published in 1985 and now almost three and a half decades later this amazingly talented author has given us a sequel, The Testaments?</t>
+  </si>
+  <si>
+    <t>The passage that jumped out and delighted me most in Atwood’s sequel to HT was said by a traumatized and intelligent adolescent: “God is an imaginary friend.” It fit the context, came off as natural. Other than that, I’m not, unfortunately, a big fan of this book. This sequel also has a context. Thirty-five years ago, I don’t think Atwood even considered writing a follow-up, or finale. It didn’t need one. It wasn’t just a dystopian thriller. It was a What If from a ripe, imaginary mind, and she</t>
+  </si>
+  <si>
+    <t>As they say, history does not repeat itself, but it rhymes.  In an afterword, Margaret Atwood explains that she wrote The Testaments, thirty-five years after her masterwork, The Handmaid's Tale, in order to answer readers' questions about what happened after the end of that earlier novel. I thought that the cliffhanger ending – with June/Offred spirited away in a van, not knowing if she was being driven to her rescue or to her death – was a brave and wise narrative choice for Atwood; my</t>
+  </si>
+  <si>
+    <t>1.5 rounded upI’m glad pretty much everyone seems to have enjoyed this more than I have... I’ll write my grumpy review at some point this weekend!</t>
+  </si>
+  <si>
+    <t>The Testaments is the first YA Novel to be nominated for The Booker Prize, which is quite a commendable feat so late in Margaret Atwood's career. Though it is not marketed as such, the fact of my reading experience is that the novel was most definitely written in conversation with the Hulu show, which automatically strips it of the insularity of a purely literary work. That said, this literary sequel-cum-spin-off of the television show works as a fusion of highbrow literary style and, mostly,</t>
+  </si>
+  <si>
+    <t>O M G</t>
+  </si>
+  <si>
+    <t>YES, I LOVED IT. THERE IS NO DOUBT. BUT NO MAN! THIS IS NOT A REVIEW!"I will embroider around each one of them with red feather stitching, to blend them in as a part of the pattern. And so we will all be together." With this promise, she had concluded the story of Alias Grace. I remember it. It’s not more than two months. It is still fresh in my mind. It was for me that she said this. This togetherness was soon to happen. My next book should have been 'The handmaid’s tale' and then this one. I</t>
+  </si>
+  <si>
+    <t>*Now joint winner of booker Prize. Whether you love it or hate it, you would think it is first part that should have won, but Booker judges are a bit slow (they awarded McEwan for Amsterdam instead of Atonement)*  "My larger fear: that all my efforts will prove futile, and Gilead will last for a thousand years. Most of the time, that is what it feels like here, far away from the war, in the still heart of the tornado. So peaceful, the streets; so tranquil, so orderly; yet underneath the</t>
+  </si>
+  <si>
+    <t>"Beneath its outer show of virtue and purity, Gilead was rotting."Margaret Atwood introduced us to Gilead, a totalitarian theocracy controlled by men, in "The Handmaid's Tale". Her sequel, "The Testaments", starts 15 years later. It features the testimony or journals of three women. Aunt Lydia is the leader of the Aunts who mold young girls into the women needed to produce babies in the polluted world where many are sterile. Aunt Lydia is smart and cunning. Her backstory gives us reasons for her</t>
+  </si>
+  <si>
+    <t>My hope and expectations for this book: This is going to be quietly brilliant, shedding new light on the power structures of totalitarian regimes and the psychology of oppression. It will build on the symbolism and lyricism of its predecessor, while at the same time detonating shocking new revelations along the way. In short, it will be a punch in the gut.My actual experience with this book: A flashy, action-adventure thriller written to tie up the loose ends of its predecessor.Philosophically</t>
+  </si>
+  <si>
+    <t>4.5 stars The Handmaid’s Tale is my favorite book, so of course any sequel was going to be met with great suspicion from my protective heart. The Testaments is a child not only of The Handmaid’s Tale, but also of the year 2019. I mean this in literary as well as socio-political terms. It takes up the modern style that is so in fashion these days of multiple POVs. It also has the smack of YA about a couple of its perspectives, lending a much different flavor than its predecessor had. It was</t>
+  </si>
+  <si>
+    <t>Just a mini review for this one as plenty of excellent reviews are already available around the place. For the most part I really enjoyed this, I have always loved Atwood and she hardly ever lets me down. However, I would have to say the last third of this seemed a tiny bit rushed ? It’s a shame because even though I was one who doubted the need for a Handmaids Tale sequel, in the end I was won over by how she approached this. I just wish the ending was as solid as the start.</t>
+  </si>
+  <si>
+    <t>The Testaments</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>UPDATE: IT'S OUT!! Go read it so we can all gush about it!!(4.5) As always, Crouch knows how to keep you on your toes and does a great job at mixing thriller and sci-fi genre.A mysterious disease starts affecting people’s memory, giving them memories of a life they never lived. NYPD detective Barry Sutton is trying to investigated how the False Memory Syndrome is spreading and ultimately will come to face Helena Smith a neuroscientist who invented a device that’s changing the world.Recursion</t>
+  </si>
+  <si>
+    <t>me: *finishes reading any book by Blake Crouch*me: what the fuck…..me: [at dinner] what the fuck…me: [trying to sleep] what the fuck….me: [in the bathroom] what the fuck….me: [breathing] w hAt THe F uCK</t>
+  </si>
+  <si>
+    <t>But what do you cling to, moment to moment, if memories can simply change. What, then, is real? Imagine you woke up one morning and discovered that your entire life - your job, your kids, your friends, all your experiences - wasn't real. It still feels real. You remember it vividly. But you also suddenly remember another life; your real life. And you are told that the life you remember is a result of FMS (False Memory Syndrome)-- an illusion created by your brain.I don't know about you, but</t>
+  </si>
+  <si>
+    <t>Congratulations for winning of best sci-fi category from goodreads choice awards 2020! This is one of my favorite books of the year! Five OMG I’m suffering from brain cells bleeding and explosion of my last standing grey cells, what the hell I just read and who am I ? stars!I know the drill but let me rephrase one more time! This is not an easy, soft, sunshine and rainbows reading! In my opinion people who are brave enough to dive into this journey should put themselves an IQ test and discover</t>
+  </si>
+  <si>
+    <t>CONGRATULATIONS- Goodreads Choice Awards Science Fiction Winner!**********************"Everything will look better in the morning. There will be hope again when the light returns. The despair is only an illusion, a trick the darkness plays."I'm convinced that Blake Crouch is THE science fiction/fantasy author of our time. You know, the one that readers pre-order their books without reading the description, the one that 50 years from now people are still talking about, dissecting his plot points</t>
+  </si>
+  <si>
+    <t>Ticking away the moments that make up a dull dayFritter and waste the hours in an offhand way.Kicking around on a piece of ground in your home townWaiting for someone or something to show you the way.Tired of lying in the sunshine staying home to watch the rain.You are young and life is long and there is time to kill today.And then one day you find ten years have got behind you.No one told you when to run, you missed the starting gun.Pink Floyd - TimeI am just going to say it – Blake Crouch is</t>
+  </si>
+  <si>
+    <t>Creative. Though-provoking. Emotionally-charged. Memorable.Whether you’re a reader that frequents the sci-fi genre, or one that only occasionally takes a risk when it comes to the suspension of disbelief (hello, that’s me!), recognizing and appreciating the level of creativity behind Blake Crouch’s work takes little effort. Time and again, Crouch has proven just how rewarding it can be to take a chance on something different. Something totally outside of my typical. With Dark Matter (one of my</t>
+  </si>
+  <si>
+    <t>FIVE MIND-BENDING STARSBook readers tend to throw around words like “addictive” and “unputdownable”. But, I'm dead serious about those words. And guys, I’m here to tell you, I read RECURSION straight through dinner last night until I finished at three am this morning. What an intelligent and freakin’ addictive thriller!The first half sets up the rest of the book and it is crucial to read carefully and try to understand the very simple quantum physics necessary to travel around in time. LOL.I</t>
+  </si>
+  <si>
+    <t>Recursion has become the first sci-fi standalone to be included in my favorite shelves.As many readers probably did, my first experience with reading Crouch’s work was for Dark Matter. I was super impressed by it and after hearing that the author has a new sci-fi thriller that’s highly recommended for readers who loved Dark Matter gave me so much joy; it would be insane for me to not take a look at Recursion. Do note that taking a look at Crouch’s novel can be surmised as reading the novel</t>
+  </si>
+  <si>
+    <t>Blake Crouch's latest science fiction thriller is a complex mind messing of a thought provoking read. It is intense, time shifting and asks profound questions of identity, memory, and what it is that makes us human. Just be prepared to find yourself buffeted all over the place. I understand that the novel is going to be filmed, and I am not surprised by this, this is a twisted story that just fizzes with energy and vitality. NYPD police officer Barry Sutton tries but fails to prevent a woman</t>
+  </si>
+  <si>
+    <t>3 Stars. What can I say about Blake Crouch’s new book Recursion? Well, it’s got “a Whole Lotta Crazy Going On!” Can you say, do-over? Are your memories to be trusted? What happens if your memories are replaced with new ones and you keep re-living your life over and over?  Just ask NYPD Detective Barry Sutton, whose life has been in tatters for the last several years, ever since the death of his daughter Meghan. When he is called to the scene of a potential suicide, he learns of something called</t>
+  </si>
+  <si>
+    <t>"He who controls the past controls the future. He who controls the present controls the past." - George Orwell, 1984This was a book I had to sit and think about before writing my review, mainly because I had to let it sink it. What would it be like to live your life over again? What would it be like to go back and change past events? How would this action affect your future? How would it affect the future of others? This book is deep and is thought provoking.Blake Crouch has written a very</t>
+  </si>
+  <si>
+    <t>4.5 stars “There is no past.”Recursion is a provocative and mind-bending read about nonlinear time, the fluidity of memory, and the power of love.  In Recursion, a scientific invention allows for one to go back in time and save a life or prevent a tragic event from occurring. But changing the past has serious consequences in the present. False Memory Syndrome emerges resulting in suicides, bombings, and nuclear war. To stop the destruction of the chair, multiple timelines are created, leading to</t>
+  </si>
+  <si>
+    <t>A dark, sci-fi thriller that had my mind bending in many directions! From the author of Dark Matter , which has been on my reading list for some time, but still haven't read it yet. Would you like a do-over of your life?  Hmm, that seems like a loaded question and it is! This was quite an edge of your seat, genre crossover that had me needing answers and quick.A brilliant neuroscientist Helena Smith, has developed technology that will redefine how we think about time and memory. Playing with</t>
+  </si>
+  <si>
+    <t>My thoughts in a nutshell I chose Recursion to be my first read by Blake Crouch and I definitely didn't regret it. Dark Matter is on my TBR for ages so it will be my next read by him.I don't read sci-fi nevertheless I was entertained by this one. At first, the whole book was so confusing. I don't understand anything about it, lol. I read it. I kept going. Then finally, I realized the concept. I have to tell you this is a brilliant and mind-blowing idea and I totally loved it.I thought a lot</t>
+  </si>
+  <si>
+    <t>Blake Crouch has done it again!!! Recursion was fascinating, confusing and brilliant!Dark Matter is one of my favorite sci-fi books of all time so I was almost scared to delve into Recursion - nervous it wouldn't live up to my expectations for Crouch. This book was ambitious. Thankfully, I had nothing to fear. Mr. Crouch's brilliant mind hasn't failed us yet. Recursion deals with memory - preserving memory, and using it to shift our reality. What a roller coaster ride this was. Can you imagine</t>
+  </si>
+  <si>
+    <t>If Black Mirror served as a surrogate for Groundhog's Day and Back to the Future, Recursion would be that test tube baby.This one starts out with a bang, or more like a plunk, as the story opens with a woman jumping from a building to her death, but not before she utters the words "My son has been erased." to Detective Barry Sutton. What follows is two storylines, one where Barry searches for the meaning behind the woman's final words and one where researcher Helena Smith is developing a means</t>
+  </si>
+  <si>
+    <t>I have no problems in announcing that this book ought to be a multi-multi-billion-dollar bestseller. Maybe I'm biased, too, but damn, this guy can write a great novel that tickles all my SF bones and reminds me how much I love well-crafted thrillers. Does this remind you of his Dark Matter? It should. And if you loved the ideas behind The Butterfly Effect, Flatliners, and Groundhog Day, I'm certain you're going to fall head-over-heels for this novel.Am I giving too much away? No. Probably not.</t>
+  </si>
+  <si>
+    <t>Many thanks to Crown Books for sending me a copy in exchange for an honest review[12/10/19] - Congratulations, Blake Crouch, on winning the 2019 Goodreads Choice Award for Science Fiction!----------  re·cur·sion/re-ker-zhun/nounthe repeated application of a recursive procedure or definition.  Have you ever had one of those books that literally change the way you look at life? Well, if you haven't, you don't know what your missing. Recursion is one of those books that you don't completely</t>
+  </si>
+  <si>
+    <t>4.5 stars, rounding up. On sale now! Review first posted on Fantasy Literature:A sort of memory chair ... Recursion begins with a dual timeline in alternating chapters, a familiar literary approach, but then splinters into razor-sharp time shards as the characters deal with the explosive consequences of a new technology relating to personal memory.In November 2018, detective Barry Sutton attempts to prevent a woman from jumping from the 41st floor of a New York City tower. The woman, Ann, tells</t>
+  </si>
+  <si>
+    <t>5, WAT WAT WAT WAT WAT. Amazeballs stars!!! Full review along with a recipe for huevos rancheros featured on my blog Recipe &amp; a Read!So, I feel like I need to start this out with a little caveat. I would put Blake Crouch’s Dark Matter in my top 5 favorite books ever read. I absolutely adored it. Was I confused at times? Yes. Was I also completely and utterly thrilled the whole time I read it? Also, yes. I was both excited and incredibly nervous to read his upcoming novel Recursion because</t>
+  </si>
+  <si>
+    <t>Helena is a gifted neuroscientist trying to develop a way to preserve memories. It’s personal for her. Her mother has Alzheimer’s. Helen is quickly running out of both time and funding. But at what price is she willing to move ahead?Barry is a New York City policeman. He’s called to help talk down a woman threatening to jump from a building as she suffers from False Memory Syndrome. So little is known about this condition. Is it contagious? Is he willing to put his own life at risk to save her?I</t>
+  </si>
+  <si>
+    <t>I'm looking forward to reading more books by Blake Crouch because I enjoyed Recursion so much. We follow NYPD Barry Sutton and neuroscientist Helena Smith through decades and decades and decades of memories. They know the world is being destroyed due to Helena's invention and they try over and over to stop the destruction, with heartbreaking results, each time. Helena invented a "memory" chair that was intended to allow a person to save memories for later when they might be suffering from</t>
+  </si>
+  <si>
+    <t>3.5 stars.This was some crazy s--t."What's more precious than our memories? They define us and form our identities."Blake Crouch's new book,  Recursion , is a riddle, wrapped in a mystery, inside an enigma.Crouch's  Dark Matter , which was one of the top five books I read in 2017, blew me away, even though I wasn't 100 percent sure I understood everything I read. But this book? This is a fascinating, albeit confusing, meditation on memory and how crucial what we remember is to our identity. It's</t>
+  </si>
+  <si>
+    <t>the thing i admire about blake crouch is how he can take a story centred in one particular genre, but make it accessible and enjoyable to everyone. this book is everything that is right in the sci-fi world and is proof that sci-fi can be written exceptionally well and appeal to the masses, regardless of individual genre preferences.not only is this story living in a dangerously close reality, where scientific and technological advances play a massive role in society (for better or worse), but</t>
+  </si>
+  <si>
+    <t>Wow....I didn’t even think I was going to like this book....I’m not a die-hard science fiction fan..... but ‘occasionally’ I’ll take the plunge. I found “Recursion”, fascinating- and it kept me hooked..... I didn’t expect any of this....this much enjoyment. It got me thinking of things I never do: parallel universes... physics...time....space...energy... Philosophy....the different universes within the multiverse.....and False Memory Syndrome.....(woke-up my imagination neurons)....and all that</t>
+  </si>
+  <si>
+    <t>ARC provided by the publisher in exchange for an honest review via NetGalley.5 STARS!Full review up!Recursion was a science fiction thriller that kept building and building for an epic finale!I’m still thinking about the ending of Recursion today. It’s a hard driving look into what is the meaning of déjà vu, much less the possibilities of rewriting mistakes and tragedies in your life.Recursion starts off with a woman jumping to her death in front of NYPD detective, Barry Sutton. Barry doesn’t</t>
+  </si>
+  <si>
+    <t>Memories stay.......People don't.Detective Barry Sutton, Central Robbery Division of the NYPD, races to the 41st floor of the Poe Building known for its Art Deco motif and certainly not for what is about to happen. A lone woman is perched on the edge in more ways than one. She looks imploringly at Barry and tells him in a breaking voice that her son has been "erased". Before Barry can even blink, the woman falls to her death.What's real, Barry?A paralyzing question that will run like a gazelle</t>
+  </si>
+  <si>
+    <t>I’m not a fan of sci-fi, but I loved Dark Matter and am fascinated by issues involving memory. So this one was a no brainer to read. In 2007, Neuroscientist Helena Smith is devoting her life to creating a technology to preserve our memories. Meanwhile, folks in 2018 are suffering from False Memory Syndrome, an affliction in which a person literally has memories of living an entirely different life. Barry Sutton is a detective that attempts to save a woman from suicide when she is suffering from</t>
+  </si>
+  <si>
+    <t>RescissionRecursion is an outstanding contemporary science fiction thriller that is a great adventure full of suspense and power struggles and demonstrates how we can corrupt ourselves in controlling history. When you realise you’ve made a mistake can you go back and erase it, or does that compound the actual mistake. The concept of capturing memories from the neural databases in our heads and replaying them as core memories is utterly fascinating. To imagine doing that for those with dementia</t>
+  </si>
+  <si>
+    <t>The past, the present, and the future walked into a bar. It was tense.That’s an editor’s joke and it always cracks me up; I love how clever it is. Well, with this book, the past, present, and future walked into my head, and it was tense, all right, but not a good tense. It was tense because I was friggin’ confused. And nothing about it cracked me up or made me think it was clever.Well, I lie. At the beginning I was all gung-ho. The opening scene is a killer—a likeable cop, Barry, is trying to</t>
+  </si>
+  <si>
+    <t>My thanks to Crown Publishing, Blake Crouch and Netgalley. Once again I received a gratis copy, all for the price of a measly review! What's funny is that I truly hate reviewing books, but for some author's, I'll go through it! Or as I call it hell and high water!First of all I have read Mr. Crouch since 2013. When I got my first kindle fire. I bought everything he had written, and loved most of it. Most! Man, all my favorite storytellers eventually scare the crap out of me. I love that and hate</t>
+  </si>
+  <si>
+    <t>Q: “You won’t even recognize me.”“My soul knows your soul. In any time.” (c)Q:“This is some kind of hell,” she says, dark. “Ready to come down to the lab and kill me again, darling?” (c)Don't let any chairs destroy the world. Even cushy ones.A bit disjointed but nevertheless engrossing read.The end... Hmmm, so did they live happily ever after or did the whole rigmarole restart?Q:I don’t want to look back anymore. I’m ready to accept that my existence will sometimes contain pain. No more trying</t>
+  </si>
+  <si>
+    <t>oooh, goodreads choice awards semifinalist for BEST SCIENCE FICTION 2019! what will happen?THIS happened! WINNER! goodreads choice awards best science fiction 2019!this is the most jonathan carrolly book not actually written by jonathan carroll, once you replace—or at least incorporate—his brand of metaphysics with pure physics. the writing isn’t as graceful and the dialogue doesn’t come near the packed potency of a great carroll-penned conversation, but the concept is deliciously similar, with</t>
+  </si>
+  <si>
+    <t>A thrilling, brutal and action packed sci-fi, which made me feel ALL the emotions!If you liked Dark Matter then I think you should definitely read this mind bending tale of time and memory.This story blew my mind! How does Blake Crouch come up with this shit?! Like he must be some kind of genius! I still haven't got my mind fully wrapped around some of the events in this book!I wont spoil you, as this is best enjoyed when you don't know what's coming! All you need to know is that the story</t>
+  </si>
+  <si>
+    <t>5 Brilliant Stars! (Masterclass)Recursion is nothing short of a sci-fi masterpiece, a story that kept me pondering days after I flipped the last page.Blake Crouch is a special type of talent. His masterful Dark Matter was seriously one of the books that got me reading avidly once again. Despite the long time between novels, I didn’t think he could deliver on the same scale as before...Crouch not only delivers, but he doubles down on Recursion, creating a story that is so captivating and</t>
+  </si>
+  <si>
+    <t>Blake Crouch writes my kind of sci-fi. He always provides a fresh and brutal take on genre tropes. In this case, he rewrites the real-world phenomenon of the Mandela Effect, creating an interesting and fast paced narrative surrounding the concept of false memories. My favorite parts of this book come later in the story, but that's not to say the beginning bits are bad. There's an extended lead-in to the titular theme of the book: recursion. Only once Crouch has fully developed his characters and</t>
+  </si>
+  <si>
+    <t>Ready to be mind-fucked? Again? Blake Crouch fucked us in Dark Matter, and now he's texting us at midnight saying, "you up?"Much like with this book, I'm intrigued....When I first started reading I was a little thrown off by the writing style. It is written in the present tense, which is unusual, so it felt a little strange until I got used to it. But, it makes a lot of sense as a creative choice because of how important time is in the story. That is my geeky grammarian talking. She needed you</t>
+  </si>
+  <si>
+    <t>By far one of the best books I’ve ever read!!! Sci-fi is not one of my “go to” genres, still enjoy it every now and then. The action and energy of this book is outstanding. Now let me tell you this one completely blew my socks off.  The book immediately sucks you in, starts off with a bang. I refused to read reviews or see ratings, and didn’t read the synopsis, I went in totally blind. I LOVED THIS BOOK!!! Ingenious and imaginative. I could see the entire book play out like a movie. It was</t>
+  </si>
+  <si>
+    <t>RECURSION DOES BOGGLE THE MIND....... A mysterious epidemic of suicides....odd painful memories....and madness! What's going on? NYPD Detective Barry Sutton is overcome with shock as he answers a call, hears an astounding story and is now curious....too curious.Helena Smith is a neuroscientist and a genius with a dream to help Alzheimer victims like her mother be able to recall memories, and when offered the opportunity to make her technological dream a reality with unlimited resources, she</t>
+  </si>
+  <si>
+    <t>“Is this moment real?”"I don’t know.”OH MY GOD. OH MY GOD. OH MY GOD.I have, with great difficulty, resisted the urge to write this review in all caps so here we go.Barry Sutton, a New York City cop, starts to investigate a case that involves False Memory Syndrome—an illness that creates false memories of an alternate life that feel just as real as the life currently lived by the person afflicted with the disease. The number of suicides due to FMS have risen and the occurrences of déjà vu have</t>
+  </si>
+  <si>
+    <t>Mind-bending and imaginative for sure, but ultimately the multiple recursions and timelines became tedious to me. I was less interested in the science and physics of time and memory and more interested in the characters and relationships.I would love to see the storyboards for this book, though, to see how Crouch kept track of his intricate plot! Makes my “project manager” head hurt thinking of a Gantt chart for this.Shrugging and moving on......liked it, didn’t love it. Putting this book on a</t>
+  </si>
+  <si>
+    <t>5 messed with my mind stars! Blake Crouch is a new to me author and he's definitely earned a spot on my  favorites of 2019. It's been awhile since I have been so fascinated with a novel that I completely lost track of time. Recursion presents a big what if in his latest book, "what if you could have the chance to turn back time?" Barry Sutton, an NYPD detective finds himself in this exact situation as an ordinary day at work leads him into a deeper investigation. Meanwhile, in another time and</t>
+  </si>
+  <si>
+    <t>I received a free advanced copy of this from NetGalley for review.I’ll bet Blake Crouch filled up at least five large whiteboards with diagrams trying to figure out the plot for this one.NYPD Detective Barry Sutton tries to stop a woman about to jump off a high rise building, and she tells him that she’s suffering from the rare False Memory Syndrome which has given her the memories of another entire lifetime including a son who doesn’t exist. Barry become intrigued by the woman’s story, in part</t>
+  </si>
+  <si>
+    <t>RELEASE DAY!Review also found at:https://grumpybookgrrrl.com/2019/05/2...I have been a huge fan of Blake Crouch’s for years and was honored to receive this ARC from Netgalley and Crown. I was fairly certain I would like this book, but I had no idea just *how* much. I LOVE stories like this.In the words of David Tennant playing The Doctor on Doctor Who:“People assume that time is a strict progression of cause to effect, but actually from a non-linear, non-subjective viewpoint, it’s more like a</t>
+  </si>
+  <si>
+    <t>This is the book I chose to read “out of my comfort zone”. I wanted to do this at least twice per year and this one seemed more of a mild introduction.This is about suicide, a suicide epidemic that is sweeping out and causing people to end their life.It involves memory and memory loss too.A detective whose trying to find out why......That’s my honest take on it, I read this in one day. I can honestly say as a genre out of my usual choices this could sway me to another side! Loved it</t>
+  </si>
+  <si>
+    <t>BLAKE CROUCH I LOVE YOU YOUR THE MASTER OF THE SCIENCE FICTION GENRE!!Barry Sutton an NYPD cop watches a woman Ann Voss Peters jump to her death from a skyscraper building before she jups she tells him MY SON HAS been erased!! with that being said Barry is suffering his own demons with the breakup of his marriage &amp; the death of his daughter Meaghan.Ann was suffering FMS ( false memory syndrome) which is two memories one true one false, its a pathogen . Helena Smith a neuroscientist is</t>
+  </si>
+  <si>
+    <t>*Arc kindly provided by Netgalley in exchange for an honest review*</t>
+  </si>
+  <si>
+    <t>Crouch is always mind-bendingly entertaining and Recursion is not an exception. A preeminent scientist creates technology intended to help Alzheimer patients. The unintended consequence is an affliction known as False Memory Syndrome (FMS) which causes some people to commit suicide. The first part of this is a bit slow but the velocity picks up considerably thereafter. Be prepared to consider memory, reality, perception and morality. The ending is a bit weak but nonetheless it is a science</t>
+  </si>
+  <si>
+    <t>Having loved Dark Matter by this author I was really looking forward to Recursion and purchased a hard copy to savour and enjoy but unfortunately this one lacked character development and for me that is intrinsic to the any story. I need characters to to be the central focus of the story and to be believable and I am afraid this is where Recursion fell flat for me. I read this one with my husband while on holiday and he agreed the chapter development was poor but he could forgive that because</t>
+  </si>
+  <si>
+    <t>How reliable is your reality?The mind can be a fragile thing, it can drive you crazy. Pick out which memories you would want to keep, making sure they are the real deal and not false recollections. Are we working with illusions or delusions? Second chances don't seem to be out of the question, but even a slightly tweaked reality brings with it consequences that were never intended. It's official. My old lady brain has been soundly scrambled. It was a challenge trying to keep things straight</t>
+  </si>
+  <si>
+    <t>2.5 starsI am going against the groove here with all the love for this one. I didn't jive with this techno-thriller that gave my imagination quite the workout. It was exercised to the point of exhaustion by the time I finished this story. I am going to take a rest with a nice glass of wine and then I am moving on.I received a copy from the publisher on NetGalley.</t>
+  </si>
+  <si>
+    <t>Your best bet is to go into this cold. I've marked this entire review as having spoilers. If you read the review now, it's your own damn fault.In a world where False Memory Syndrome is slowly becoming an outbreak, Detective Barry Sutton watches a woman kill herself, driven mad by her memories of another life. What horrible secrets will Barry uncover when he follows her back trail?Blake Crouch has been a favorite of mine for a few years, first because of the Wayward Pines series, then Dark</t>
+  </si>
+  <si>
+    <t>As a fan of novels that feature some kind of time travel and stories that have a dystopian touch this book really lit up all the bulbs for me. I absolutely gobbled it up and was left feeling empty when it drew to a close. As the book opens Barry Sutton, a modern day New York cop, is attempting to prevent a woman jumping to her death from a high floor of a city centre building. It seems that she’s suffering from a disease called False Memory Syndrome which causes infected individuals to suddenly</t>
+  </si>
+  <si>
+    <t>Every once in a while, I find a book that is so incredible, I don't want it to end. It speaks to me in a way I know I won't find again for a long time, and I try my best to savor every word, every page, but I fail miserably. It's like putting a bag of Tootsie Rolls in front of me -- there is no such thing as restraint, only crazed consumption.Blake Crouch's Recursion is one of those books. It was complex and heartbreaking and nerdy and PERFECT. I wanted to live all those desperate and driven</t>
+  </si>
+  <si>
+    <t>I've been told that I needed to read Blake Crouch's Dark Matter since I've started reviewing books on Goodreads—two and a half years ago. I've always been hesitant because I never pictured myself enjoying a supernatural/sci-fi thriller. I just always believed it to be a little far-fetched and out of touch with reality. When I was given the opportunity to read Blake Crouch's  Recursion , I figured that it would be worth a try. I am so happy that I gave  Recursion  the chance that it deserves.</t>
+  </si>
+  <si>
+    <t>Erased memories lead to annihilation. As thought exercise this works extremely well and boggled the mind. There is so much to contemplate about our memories, how they shape our lives and who we would be with a different set of circumstances. As a page-turning thriller it was a twisty and terrorizing read due to its world altering consequences, though it did get a little bogged down in the repetition of timelines and I’ll admit to a wee bit of skimming. This book has a great deal to say about</t>
+  </si>
+  <si>
+    <t>Putting down this book before you get to the end is worse than ending a nicotine addiction. Crouch, who I’ve never read before, has mastered the art of storytelling and, in telling this story, he has breathed fresh life into themes that science fiction writers have grappled with for many decades. Have you ever experienced deja vu, the sense that you’ve been somewhere or experienced something before? Maybe it’s not your imagination. Maybe something has been at work there you’ve only caught</t>
+  </si>
+  <si>
+    <t>I finished this book last night and my mind is still reeling. I loved this book a lot, but it’s not perfect - I definitely had a few issues with it and I didn’t love it as much as Dark Matter. But wow this book is quite the mind bender and quite a journey. Here are the notes I jotted down after finishing it:-That was fucking mind blowing-So many cool ideas about memories and time travel and deja vu and it really made me think the same way Dark Matter did -I annotated the hell out of this book</t>
+  </si>
+  <si>
+    <t>You can find this review and more at Novel Notions. I’m so amazed by Blake Crouch. With Dark Matter, he enthralled the reading world with a wild plot and breakneck action. With Recursion, he proves that Dark Matter wasn’t a fluke. Crouch delivered a level of intensity that I’ve rarely encountered in the written word via a fascinating, disturbing premise. More surprisingly, he crafted a romance unlike any I’ve ever read. After reading Recursion, Crouch has become an insta-buy sci-fi author for</t>
+  </si>
+  <si>
+    <t>“He has wondered lately if that's all living really is—one long goodbye to those we love.”  (more like 3.5 stars )Barry, a New York city cop, is called for an emergency when a woman threatens to kill herself by jumping from a tall building. As he tries to talk her out of it, the woman warns him: she's been suffering from FMS - False Memory Syndrome - and she may be contagious. Barry's first instinct is to back off: after all, the mysterious disease has been driving people insane for a while now,</t>
+  </si>
+  <si>
+    <t>AN ASTOUNDING 5 STARS FOR RECURSIONMY MIND IS BLOWN  How the heck is Blake Crouch soooo freaking smart!? Like seriously. WTF!Okay... let’s break this book review down because this book was so much to handle. The real tea is we’ve got time travel, warped/polar realities, medical sci-fi, apocalyptic chaos, and a love story all wrapped up in a neat little “did that just happen” bow. Got it?  Great! Now if that isn’t enticing enough, then let’s talk about intellect... because I think Blake Crouch’s</t>
+  </si>
+  <si>
+    <t>What have I just read?? Brilliant writing and a mind boggling story that will have you rereading certain pages to make sure that what you are reading is really happening! This novel will take you on a relentless journey that will have your head spinning with every chapter.The story takes place in present day and begins with a detective investigating a possible suicidal person suffering from FMS (False Memory Syndrome) a condition that seems to be cropping up more and more frequently. Then you</t>
+  </si>
+  <si>
+    <t>An entertaining and engaging exploration of memory, time, and enduring love.I picked up this book because I loved DARK MATTER by the same author. This story is as captivating as the previous book. It starts with Barry, a NY detective who is answering a distress call and heads to a building where a woman is about to commit suicide. She suffers from FMS or False Memory Syndrome, a disorder where victims have memories of a life they never lived.From then on, Detective Barry starts investigating</t>
+  </si>
+  <si>
+    <t>“There are so few things in our existence we can count on to give us the sense of permanence, of the ground beneath our feet. People fail us. Our bodies fail us. We fail ourselves. ... But what do you cling to, moment to moment, if memories can simply change. What, then, is real? And if the answer is nothing, where does that leave us?”   Recursion is intelligent, engaging, mind-bending, and quite the wild ride. It explores the function of memories and their dysfunction in the context of a</t>
+  </si>
+  <si>
+    <t>3.5/5 stars Ahhh, Blake Crouch and his time/mind bending games. He's very good at it! If you pick up Dark Matter, or Recursion (when it comes out) I suggest you clear your schedule, because his books demand to be finished in one siting. Two at the most. My feelings for this book can be broken down into two parts. First part of the book- when I couldn't turn the pages fast enough. When I wanted to highlight every sentence because it contained profound wisdom. And the second part of the book, when</t>
+  </si>
+  <si>
+    <t>4.5 StarsOh Mr Crouch! You certainly love to hurt my brain don’t you!I ADORED Dark Matter when I listened to the audio version last year! My brain has never hurt so much yet felt so good while reading a book before! AMAZING! So I was SO DARN EXCITED when I randomly received Recursion in the mail from the lovely peeps over at Pan Macmillan. It was my most anticipated read of the year!The plot is very complicated. It follows two seemingly unconnected people, Barry and Helena. Barry is a police</t>
+  </si>
+  <si>
+    <t>Oh my god this book was so much fun! It was a time-twisty, mind-bendy, fast-paced delight and I devoured it in a single sitting. It's a novel that on one hand is what I would term an extreme popcorn read in that it's just bonkers and immediately enjoyable on a surface level...but then it's also quite thought provoking and moralistic and raises these bigger questions about humanity such as what does doing something for the greater good even mean and asks whether or not it's our memories that</t>
+  </si>
+  <si>
+    <t>Blake Crouch delivers again another mind-boggling edge of your seat Sci-fi Thriller. When I read Dark Matter a few months back I was captivated it was so unique, thought provoking and that unputdownable quality we want in a great book.So, I had high hopes for Recursion, and it did not disappoint…. Barry Sutton a NYPD detective is called to the rooftop of a skyscraper in Manhattan, a suicidal women is threatening to throw herself off the building, she is suffering from the effects of FMS (False</t>
+  </si>
+  <si>
+    <t>If you're into stuff like this, you can read the full review.Slugging It Out: "Recursion" by Blake CrouchThe cat shat on the mat!Sometimes I get enamoured of a novel's premise and love it so much that all the (obvious) problems with it get suppressed and/or ignored. Then you wake up in the morning and that sickly wave of shame just washes right over you. Did that ever happen to you?</t>
+  </si>
+  <si>
+    <t>Sometimes, some books or movies just blow you away. It happened to me once last year - funnily enough and by pure coincidence, the narrator of that book was one of the narrators for this one, too - and now it's happened again with this book. I had heard the author was good and his writing intelligent but even so, he exceeded my expectations, by a lot.The story is that of an ambitious young scientist who wants to find a cure for Alzheimers. Or at least some form of workaround. And in a way, she</t>
+  </si>
+  <si>
+    <t>3.5 starsHelena Smith is a brilliant neuroscientist who can't bear to watch her mother slowly lose her mind to Alzheimer's Disease. Like other dementia patients, Helena's mom is losing her memories, and will eventually recall nothing of her life or family.In an effort to help her mother and other people suffering from Alzheimer's, Helena is trying to develop a technology that will capture a person's memories, so they can be retrieved at a later time. Put very simply, the proposed device is a</t>
+  </si>
+  <si>
+    <t>5 starsBlake Crouch has become the master of mind-bendy mainstream science fiction. First he blew my mind with Dark Matter, then just when I thought my mind couldn’t be forked with any more, he bent it a thousand different ways with Recursion. I am still reeling from this one. It was everything. An exciting thriller? Check. Intense suspense? Check. Emotional family drama? Yup, check. Sci-Fi done in a way that makes even those of us non-science people understand? Check, check, check. Plus, a</t>
+  </si>
+  <si>
+    <t>This review and other non-spoilery reviews can be found @The Book Prescription   “I know everything feels hopeless to you in this moment, but this is just a moment, and moments pass.”   Unpopular opinion coming, brace yourselves! There are always sign but sometimes we decide to ignore them. 90% of the time when I request a book and my request is declined or is pending, I end up getting it and getting disappointed. My request for Recursion is still pending on Edelweiss and that was the sign I</t>
+  </si>
+  <si>
+    <t>5 of 5 stars at The BiblioSanctum https://bibliosanctum.com/2019/06/11/...If the best thrillers make you feel breathless, then Recursion by Blake Crouch is definitely one you don’t want to miss! I also laughed, fretted, and raged a little. Heck, I’m not ashamed to admit I even cried some. I swear, if all books were this exciting and addictive, there’d be no such thing as reading slumps. But then I guess we’d also be in a lot of trouble, because nothing would ever get done and no one would ever</t>
+  </si>
+  <si>
+    <t>GR interview with Blake Crouch: https://www.goodreads.com/interviews/...'Memory is more fundamental than time. Memory is the actual thing that gives us the illusion of time.'What if you could go back in time using a memory as a portal and change things that happened? Helena Smith is a Stanford neuroscientist who is working on an invention she'd call an 'Immersive Platform for Projection of Long-Term, Explicit, Episodic Memories' if she succeeded. In layman's terms, she's hoping to build a</t>
+  </si>
+  <si>
+    <t>4.5 stars. What is memory? Are memories real? Is there a present or only a remembrance of the present? What is really the truth? Is time an illusion? Can the past and the present be altered? Can a lifetime be changed? Can a collective consciousness be erased?"Because memory… is everything. Physically speaking, a memory is nothing but a specific combination of neurons firing together - a symphony of neural activity. But in actuality, it's the filter between us and reality. You think you're</t>
+  </si>
+  <si>
+    <t>Too good. Like one really long episode of Fringe. Everything that Crouch writes is so cinematic - I can't wait to see this book adapted.</t>
+  </si>
+  <si>
+    <t>I have been a fan of Blake Crouch since I stumbled upon his Serial Killers Uncut series ages ago. Then stumbled upon the Wayward Pines trilogy well before the show came out and then my favorite trilogy - the Luther Kite trilogy (HIGHLY recommend for thriller fans, fyi). Then he goes into a sci-fi direction with Dark Matter and again, his brilliance is showcased. Now, his latest, Recursion, is also a complete mind boggler and in the best way possible. I can't even tell you the times my mind blew</t>
+  </si>
+  <si>
+    <t>I believe everyone has memories they would like to erase or change. You’d like to take back an insult, tell someone you love them or turn that foul ball into a walk off home run. Could that be done? What would be the consequences?Recursion, Blake Crouch’s new novel examines the question of altering reality and it’s effects. Police officer Barry Sutton and neuroscientist Helena Smith face the question of memory from very different perspectives and needs. Barry is investigating FMS (False Memory</t>
+  </si>
+  <si>
+    <t>3.5 starsThis book was 50% intricate storytelling that REALLY made me think (in a good way) and 50% rushed romantic melodrama that I didn't enjoy nearly as much. Once Helena's and Barry's storylines intersected, the book went downhill for me. I can't say much more without giving away major parts of the book.</t>
+  </si>
+  <si>
+    <t>"There are so few things in our existance we can count on to give us the sense of permanence, of the ground beneath our feet. People fail us. Our bodies fail us. We fail ourselves. But what do you cling to, moment to moment, if memories can simply change. What, then, is real? And if the answer is nothing, where does that leave us?"Five stars for a mind blowing book! Barry Sutton is a NYC policeman that gets called to help on a suicide attempt. The victim is a woman that claims to suffer from</t>
+  </si>
+  <si>
+    <t>Why I love itby Seth FriedDid you know that everything is a memory? By the time your brain filters and processes everything you experience, as we learn early on in Recursion, the present is already gone. Even the words you’re reading now are in the past. This is the sort of mind-bending and disorienting concept upon which the best science fiction is built.Recursion begins with dual storylines that gradually converge. In one, we learn of the outbreak of a mysterious condition known as False</t>
+  </si>
+  <si>
+    <t>AN ABSOLUTE FAVORITE!Five stars is not enough. This book was so perfectly matched to my reading tastes that I was in my feels the entire time. It thoroughly explored all angles of its topic and gave me so much to think about: memory, reality, history, war, time, choices, relationships, regrets... who am I? WHEN am I??There was a section of the book that got repetitive and I caught myself thinking "ok, we get it, do we need to see this play out again?" But then it hit me. It's called RECURSION.</t>
+  </si>
+  <si>
+    <t>blake crouch likes to make us all feel dumb, doesn't he?- this book was an absolute brain twister, it was action packed and fast paced and filled with sciencey talk to get the nerd in you excited- very similar to dark matter, recursion explores the horrifying notion of "what if memories weren't as concrete as you though?"- and let me tell you guys, this is going to hurt your mind (and freak you out)- bc really, aren't we just the sum of our memories? aren't they responsible for who we are? for</t>
+  </si>
+  <si>
+    <t>Barry is a New York City police officer who gets intrigued with a case concerning False Memory Syndrome – a mysterious disorder where the victim remembers a life they never lived. Helena is a scientist working on a project to help preserve past memories. When dangerous technology threatens past memories, Barry and Helena work together to save the future.Told using various timelines and the alternating points of view of Barry and Helena. This is a mind-bending time travel thriller. The first part</t>
+  </si>
+  <si>
+    <t>While I loved this author's book Dark Matter, unfortunately I can't say the same for this one. I will be the first to admit that I don't do well with multiple time lines and going back and forth into different scenarios. My head just can't seem to keep it all straight. I had the very same issue with The Time Traveler's Wife and The Seven Deaths of Evelyn Hardcastle. Suffice to say, this book was just not for me but I do know that others have loved it.</t>
+  </si>
+  <si>
+    <t>Better than his last and I didn’t think that was possible. My full review will be up on my booktube channel at http://YouTube.com/peterlikesbooks</t>
+  </si>
+  <si>
+    <t>3.5sWell that was weird!!! Recursion is my first by author Blake Crouch and I wasn’t sure what to expect. Parts of it I thoroughly enjoyed; the weird, strange, other-worldly parts I’m not so sure about!!Helena Smith had the mind of a scientist where nothing was impossible. Her vision of helping her mother, who was in the early stages of dementia, took all her focus. She was determined to develop a machine which would retrieve and save memories so the dementia patient could have them again. It</t>
+  </si>
+  <si>
+    <t>Blake Crouch did it again! He actually topped Dark Matter and left my head spinning, and my mind blown! The book starts out with Detective Barry Sutton being called out to a jumper and while trying to talk her off the ledge, is intrigued by the fact that she is experiencing what’s being called False Memories. She remembers an entire other life with a husband and son and would prefer not to live without them. (I was hooked at False Memories!)The book then flashes back to 2007 to a neurologist,</t>
+  </si>
+  <si>
+    <t>Thanks to Netgalley and the publisher for providing me with an advanced copy in exchange for an honest review.Blake Crouch is a wonder. Seriously, the man has good ideas - great concepts... AND, he knows how to execute them. I loved Wayward Pines and Dark Matter, and Recursion follows in a similar vein.Can you imagine a world in which the construct of time - that keeps us sane, and our lives and minds in order - has been circumvented? Well, Blake did, and he wrote about it and knocked it out of</t>
+  </si>
+  <si>
+    <t>Amazing book!! My brain still hurts from this crazy roller coaster. I hope Blake Crouch will write many more good books like this one or Dark Matter.</t>
+  </si>
+  <si>
+    <t>Oh good lord. Blake, you need to start selling your books with free Xanax included. This book gave me soooo much anxiety and possible brain bruising. If I got distracted for a second while listening to the audio, I was instantly completely lost and adrift in the sea of time. There were many twists and turns that I did not see coming (which I love). It is close to impossible to review the content in the book, because the heart of what "recursion" refers to is not revealed until about 25% into the</t>
+  </si>
+  <si>
+    <t>I cannot stress enough how much I loved Dark Matter, by Blake Crouch. It was creative, entertaining, and completely out of my usual genre of reading, which was even more surprising for me. I highly anticipated his next book, but went in with low expectations as I believed that nothing, absolutely  nothing  could compare to his previous novel. Needless to say, Crouch’s “Recursion” blew my expectations out of the water! NYC cop Barry Sutton and his team are trying to get a handle on what is being</t>
+  </si>
+  <si>
+    <t>4.5 stars   “Everything will look better in the morning.There will be hope again when the light returns.The despair is only an illusion, a trick the darkness plays.”  One of the most compelling books I’ve read this year!Recursion is about a detective, Barry, who takes a late call for a suicide jumper. While trying to talk her off the ledge of a building, she reveals that she has False Memory Syndrome, something sweeping the world in which infected people remember an entire life they never live.</t>
+  </si>
+  <si>
+    <t>Whaaaaat a wild ride! Seeeeriously, I wasn't sure if this would be too much of an overlap of Dark Matter, but it was not. This is a story about a present day circumstance where something called FMS (False Memory Syndrome) is afflicting people and causing horrific catastrophes. I don't want to say too much more, as I don't want to ruin the story for the handful of people who have yet to read this. Seems like I'm a bit behind a lot of you Blake Crouch lovers. But man, ahhhhh, I'm just going to</t>
+  </si>
+  <si>
+    <t>Recursion by Blake Crouch#8. My nominee for 2019 BOTYIf you liked Dark Matter, you'll love this story. When a person dies, he only appears to die. He is still very much alive in the past...All moments, past, present and future, always have existed, always will. It is just an illusion we have here on Earth that one moment follows another one, like beads on a string, and that once a moment is gone it is gone forever. - Kurt Vonnegut, Slaughterhouse-five. I hope you enjoy this syfy, thriller,</t>
+  </si>
+  <si>
+    <t>I liked it exactly three stars'-worth. I liked Dark Matter a great deal better and felt that, in this iteration of the man-unmoored-by-events trope, the angsty Dresden-ness was overwhelming my give-a-damn meter.</t>
+  </si>
+  <si>
+    <t>Rating: 4.5 rounded down to 4 mind-boggling starsThis latest release from Blake Crouch, author of the mind-bending, ‘Dark Matter’, is another one of those, “Wait, what just happened?” type of books. It’s a bit trippy. I had to really concentrate to follow the logic, and sometimes I still think it eluded me once in awhile. The ride was fantastic though! This is could be categorized as a time-travel book that has simply been wrapped in a memory re-do storyline. What if you had a chance to pick a</t>
+  </si>
+  <si>
+    <t>A few years back, I read Blake Crouch's book Pines, and I didn't love it. I rated it 2 stars, though thanks to the magic of memory, it's really more of a 1 star to me, because all I remember are the plot holes, the terrible writing "quirks", the completely wrong science, the lack of understanding about how evolution works, the Megalomaniac Billionaire(tm) who thinks that he's saving the world, the completely useless Grand Design behind it all, and just generally all the things that just made no</t>
   </si>
 </sst>
 </file>
@@ -963,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,6 +3188,1606 @@
         <v>203</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B302" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B309" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B311" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B312" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B313" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B314" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B315" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B316" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B317" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B318" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B319" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B320" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B321" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B322" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B323" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B324" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B325" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B326" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B327" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B328" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B329" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B330" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B331" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B332" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B333" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B334" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B335" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B336" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B337" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B338" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B339" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B340" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B341" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B342" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B343" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B344" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B345" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B346" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B348" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B349" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B350" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B351" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B352" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B353" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B354" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B355" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B356" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B357" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B358" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B359" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B360" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B361" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B362" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B363" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B364" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B365" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B366" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B367" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B368" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B369" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B370" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B371" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B372" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B373" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B374" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B375" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B376" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B377" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B378" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B379" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B380" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B381" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B382" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B383" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B384" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B385" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B386" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B387" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B388" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B389" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B390" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B391" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B392" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B393" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B394" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B395" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B396" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B397" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B398" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B399" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B400" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B401" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
